--- a/勤怠管理.xlsx
+++ b/勤怠管理.xlsx
@@ -664,7 +664,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -851,7 +851,7 @@
         <v>0.375</v>
       </c>
       <c r="C25" s="12">
-        <v>0.56597222222222221</v>
+        <v>0.59722222222222221</v>
       </c>
     </row>
     <row r="26" spans="1:3">
